--- a/Роботи-Події Акименко Шальнова.xlsx
+++ b/Роботи-Події Акименко Шальнова.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\GitHub\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CE0D77-0450-4C9E-8F6D-EDA627883FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9438CD9A-04B7-4823-BD92-E88DFC5B09B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Роботи і терміни" sheetId="7" r:id="rId1"/>
+    <sheet name="Роботи і події" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/Роботи-Події Акименко Шальнова.xlsx
+++ b/Роботи-Події Акименко Шальнова.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\GitHub\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9438CD9A-04B7-4823-BD92-E88DFC5B09B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085AD864-E98D-4CAC-8536-C8A422B863F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -466,20 +466,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,9 +493,6 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -523,8 +511,14 @@
     <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,15 +745,16 @@
   </sheetPr>
   <dimension ref="A1:DJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="5" width="23.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="23.109375" style="20" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="12" width="3.6640625" customWidth="1"/>
@@ -826,14 +821,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="2"/>
@@ -843,22 +838,22 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>44222</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="19">
         <v>2</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -866,137 +861,137 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>44222</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="19">
         <v>3</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>44222</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="19">
         <v>4</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="13">
         <v>44223</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="19">
         <v>5</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>2</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="19">
         <v>6</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>11</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="19">
         <v>7</v>
       </c>
       <c r="F8" s="2">
         <v>9</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="19">
         <v>8</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1004,137 +999,137 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="19">
         <v>9</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>10</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="19">
         <v>10</v>
       </c>
       <c r="F11" s="2">
         <v>11</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>44259</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="19">
         <v>11</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="19">
         <v>12</v>
       </c>
       <c r="F13" s="2">
         <v>7</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="19">
         <v>13</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="15">
         <v>7</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="19">
         <v>14</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="15">
         <v>8</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1142,114 +1137,114 @@
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="19">
         <v>15</v>
       </c>
       <c r="F16" s="2">
         <v>39</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="19">
         <v>16</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="15">
         <v>15</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="19">
         <v>17</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="15">
         <v>8</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="19">
         <v>18</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="15">
         <v>10</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="18">
         <v>44313</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="19">
         <v>19</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="15">
         <v>1</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1257,114 +1252,114 @@
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="19">
         <v>20</v>
       </c>
       <c r="F21" s="2">
         <v>14</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="19">
         <v>21</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="15">
         <v>14</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="19">
         <v>22</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="15">
         <v>15</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="19">
         <v>23</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="15">
         <v>5</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="18">
         <v>44334</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="19">
         <v>24</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="15">
         <v>1</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="9" t="s">
         <v>47</v>
       </c>
     </row>
